--- a/配置文档/地图相关/地图生成.xlsx
+++ b/配置文档/地图相关/地图生成.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="8910"/>
+    <workbookView windowWidth="17805" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_GenerateBottomMap_随机生成地图方式" sheetId="1" r:id="rId1"/>
-    <sheet name="cfg_MapMaterial_生成地图用材料" sheetId="3" r:id="rId2"/>
-    <sheet name="cfg_MapExtraDraw_地图额外绘制表" sheetId="6" r:id="rId3"/>
-    <sheet name="cfg_GenerateBigStruct_地图大型结构" sheetId="4" r:id="rId4"/>
-    <sheet name="cfg_GenerateAdornMap_装饰绘制层" sheetId="5" r:id="rId5"/>
-    <sheet name="cfg_MapWall_地图墙壁表" sheetId="7" r:id="rId6"/>
+    <sheet name="cfg_MapMaterial_生成地图用材料" sheetId="3" r:id="rId1"/>
+    <sheet name="cfg_GenerateFixedMap_固定地图配置" sheetId="11" r:id="rId2"/>
+    <sheet name="cfg_GenerateBottomMap_随机生成地图方式" sheetId="1" r:id="rId3"/>
+    <sheet name="cfg_MapExtraDraw_地图额外绘制表" sheetId="6" r:id="rId4"/>
+    <sheet name="cfg_GenerateBigStruct_地图大型结构" sheetId="4" r:id="rId5"/>
+    <sheet name="cfg_GenerateAdornMap_装饰绘制层" sheetId="5" r:id="rId6"/>
     <sheet name="cfg_MapPassType_地图可通过类型" sheetId="9" r:id="rId7"/>
-    <sheet name="数据类型" sheetId="8" r:id="rId8"/>
+    <sheet name="cfg_MapEdge_地图边缘连接配置" sheetId="10" r:id="rId8"/>
+    <sheet name="数据类型" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="7">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="7">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="7">数据类型!$A$1:$D$37</definedName>
+    <definedName name="ExternalData_1" localSheetId="8">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="8">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="8">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="280">
+  <si>
+    <t>该表只配置 地图生成用到的材料，
+不管是哪层的
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>地图生成用材料id</t>
+  </si>
+  <si>
+    <t>地图生成用材料名称</t>
+  </si>
+  <si>
+    <t>可通过类型-注意仅地板层1的该材料有效果
+cfg_MapPassType_地图可通过类型的id</t>
+  </si>
+  <si>
+    <t>生成概率
+这个概率是先满足地图生成密度之后
+计算的
+暂未使用</t>
+  </si>
+  <si>
+    <t>材料所用图集id
+地块表的cfg_MapImageSet_地图图像集id</t>
+  </si>
+  <si>
+    <t>所在图集序号</t>
+  </si>
+  <si>
+    <t>物理碰撞多边形坐标列表
+（PhysicsLayerId,X1,Y1,X2,Y2....）
+PhysicsLayerId是cfg_MapPhysicsLayer_物理层配置的主键，之后每个X,Y的组合，都是图块内部碰撞多边形的顶点坐标，
+X(0-20) Y（0-20）
+相同层的坐标总数小于3的无效（相同层坐标作为一个碰撞多边形）
+一层可以有多个碰撞多边形！！！
+（PhysicsLayerId1,X1,Y1,X2,Y2....）|（PhysicsLayerId2,X1,Y1,X2,Y2....）|（PhysicsLayerId3,X1,Y1,X2,Y2....）</t>
+  </si>
+  <si>
+    <t>是否需要图块边缘处理
+即通过周围图块条件来确认自身图块
+该逻辑在地图生成基本完成后运行，可以用于对墙壁
+河流，海岸等区域的边缘进行合理的过渡
+具体图请看地块表中cfg_MapEdge_地图边缘连接配置</t>
+  </si>
+  <si>
+    <t>小地图所示颜色</t>
+  </si>
+  <si>
+    <t>生成系数（暂未使用）</t>
+  </si>
+  <si>
+    <t>字段导出设置</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>MaterialId</t>
+  </si>
+  <si>
+    <t>MaterialName</t>
+  </si>
+  <si>
+    <t>PassTypeId</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>ImageSetId</t>
+  </si>
+  <si>
+    <t>ImageSetIndex</t>
+  </si>
+  <si>
+    <t>CollisionPolygon</t>
+  </si>
+  <si>
+    <t>IsEdge</t>
+  </si>
+  <si>
+    <t>PreviewColor</t>
+  </si>
+  <si>
+    <t>Parame</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>空地</t>
+  </si>
+  <si>
+    <t>#BASEVALUE</t>
+  </si>
+  <si>
+    <t>墙壁</t>
+  </si>
+  <si>
+    <t>(0,-10,-10,10,-10,10,10,-10,10)</t>
+  </si>
+  <si>
+    <t>水流</t>
+  </si>
+  <si>
+    <t>数字2</t>
+  </si>
+  <si>
+    <t>数字3</t>
+  </si>
+  <si>
+    <t>悬崖</t>
+  </si>
+  <si>
+    <t>该表只配置 固定副本地图
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>固定地图id</t>
+  </si>
+  <si>
+    <t>地图名称</t>
+  </si>
+  <si>
+    <t>地图描述</t>
+  </si>
+  <si>
+    <t>地图文件路径
+无法仅填写#BASEVALUE</t>
+  </si>
+  <si>
+    <t>MapId</t>
+  </si>
+  <si>
+    <t>MapName</t>
+  </si>
+  <si>
+    <t>MapDescribe</t>
+  </si>
+  <si>
+    <t>MapPath</t>
+  </si>
+  <si>
+    <t>测试固定地图</t>
+  </si>
   <si>
     <t>该表只配置 生成方式的总体参数，如生成地图的长宽，是否需要有边界墙壁， 边界墙壁的材料（图集id+图集内序号）,墙壁厚度，生成密度，平滑度，区域最小尺寸小于这个尺寸就清除,  生成种子id(生成种子表的id)  ，包含随机大结构id列表，
 生成材料id列表,生成随机大结构id列表
@@ -80,12 +244,6 @@
   </si>
   <si>
     <t>墙壁材料id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">墙壁连接贴图
-地图图像集的id
-9宫格法处理墙壁连接
-</t>
   </si>
   <si>
     <t>是否使用
@@ -166,12 +324,6 @@
 连接各区域的通道的宽度</t>
   </si>
   <si>
-    <t>字段导出设置</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
     <t>GenerateMapId</t>
   </si>
   <si>
@@ -196,9 +348,6 @@
     <t>WallMaterialId</t>
   </si>
   <si>
-    <t>WallImageId</t>
-  </si>
-  <si>
     <t>IsUseNoiseEdit</t>
   </si>
   <si>
@@ -242,21 +391,6 @@
   </si>
   <si>
     <t>PassWidth</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>&lt;(INT)&gt;</t>
   </si>
   <si>
     <t>&lt;INT&gt;</t>
@@ -295,79 +429,6 @@
 </t>
   </si>
   <si>
-    <t>该表只配置 地图生成用到的材料，
-不管是哪层的
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>地图生成用材料id</t>
-  </si>
-  <si>
-    <t>地图生成用材料名称</t>
-  </si>
-  <si>
-    <t>可通过类型
-cfg_MapPassType_地图可通过类型的id</t>
-  </si>
-  <si>
-    <t>生成概率
-这个概率是先满足地图生成密度之后
-计算的
-暂未使用</t>
-  </si>
-  <si>
-    <t>材料所用图集id
-地块表的cfg_MapImageSet_地图图像集id</t>
-  </si>
-  <si>
-    <t>所在图集序号</t>
-  </si>
-  <si>
-    <t>生成系数（暂未使用）</t>
-  </si>
-  <si>
-    <t>MaterialId</t>
-  </si>
-  <si>
-    <t>MaterialName</t>
-  </si>
-  <si>
-    <t>PassTypeId</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>ImageSetId</t>
-  </si>
-  <si>
-    <t>ImageSetIndex</t>
-  </si>
-  <si>
-    <t>Parame</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>空地</t>
-  </si>
-  <si>
-    <t>墙壁</t>
-  </si>
-  <si>
-    <t>水流</t>
-  </si>
-  <si>
-    <t>数字2</t>
-  </si>
-  <si>
-    <t>数字3</t>
-  </si>
-  <si>
-    <t>悬崖</t>
-  </si>
-  <si>
     <t>额外绘制id</t>
   </si>
   <si>
@@ -431,9 +492,6 @@
   </si>
   <si>
     <t>(50,200)</t>
-  </si>
-  <si>
-    <t>#BASEVALUE</t>
   </si>
   <si>
     <t>地图大型结构id</t>
@@ -595,18 +653,6 @@
   </si>
   <si>
     <t>(4,1000)|(5,1000)</t>
-  </si>
-  <si>
-    <t>墙壁生成方式id</t>
-  </si>
-  <si>
-    <t>墙壁描述</t>
-  </si>
-  <si>
-    <t>WallId</t>
-  </si>
-  <si>
-    <t>WallDescribe</t>
   </si>
   <si>
     <t>第一行 为备注
@@ -643,7 +689,9 @@
   <si>
     <t>通过类型
 0无影响
-1单位到上面就会停止主动移动2会直接阻止任何陆军和爬行单位通过该地块</t>
+1单位到上面就会停止主动移动
+2会直接阻止任何陆军和
+爬行单位通过该地块</t>
   </si>
   <si>
     <t>陆军通过时速度参数
@@ -707,18 +755,57 @@
     <t>杀死陆军和爬行单位</t>
   </si>
   <si>
+    <t>该配置表用于保存 地图边缘连接相关图块
+相当于相同的材料，只是绘制上的不同，不改变数据
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>边缘连接类型
+0    0000  四周无本材料
+1    0001  下端有
+2    0010  左端有
+3    0011  左下有
+4    0100  上端有
+5    0101  上下有
+6    0110  左上有
+7    0111  左上下有
+8    1000  右端有
+9    1001  右下有
+10   1010 左右有
+11   1011 左右下有
+12   1100 右上有
+13   1101 右上下有
+14   1110 左右上有
+15   1111 四边都有</t>
+  </si>
+  <si>
+    <t>边缘连接名称</t>
+  </si>
+  <si>
+    <t>EdgeId</t>
+  </si>
+  <si>
+    <t>EdgeName</t>
+  </si>
+  <si>
     <t>数据类型编号</t>
   </si>
   <si>
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -728,6 +815,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -764,6 +854,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -812,6 +905,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -839,12 +935,18 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -869,6 +971,9 @@
     <t>PNG</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -890,24 +995,21 @@
     <t>12312312321</t>
   </si>
   <si>
-    <t>RGB</t>
+    <t>(0,0,0)</t>
   </si>
   <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -927,6 +1029,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1067,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -976,8 +1088,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1160,12 +1271,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1178,19 +1283,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,33 +1675,33 @@
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,7 +1736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1635,43 +1746,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1680,40 +1809,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1725,16 +1839,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1746,22 +1875,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1827,12 +1944,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -2088,542 +2206,444 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
-    <col min="14" max="14" width="31.25" customWidth="1"/>
-    <col min="15" max="15" width="57.2583333333333" customWidth="1"/>
-    <col min="16" max="16" width="27.6416666666667" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="28.25" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="21.125" customWidth="1"/>
-    <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="22" max="22" width="23.375" customWidth="1"/>
-    <col min="23" max="24" width="29.625" customWidth="1"/>
-    <col min="25" max="25" width="23.625" customWidth="1"/>
-    <col min="26" max="26" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="55.1416666666667" customWidth="1"/>
+    <col min="9" max="9" width="51.4666666666667" customWidth="1"/>
+    <col min="10" max="11" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="171" spans="1:26">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="10" customFormat="1" ht="171" spans="1:11">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+    </row>
+    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="13" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="H3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="K3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="25" t="s">
+    </row>
+    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="27"/>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12">
-        <v>2</v>
-      </c>
-      <c r="I2" s="12">
-        <v>2</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" s="12">
-        <v>2</v>
-      </c>
-      <c r="L2" s="12">
-        <v>2</v>
-      </c>
-      <c r="M2" s="12">
-        <v>2</v>
-      </c>
-      <c r="N2" s="12">
-        <v>2</v>
-      </c>
-      <c r="O2" s="12">
-        <v>2</v>
-      </c>
-      <c r="P2" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>2</v>
-      </c>
-      <c r="R2" s="12">
-        <v>2</v>
-      </c>
-      <c r="S2" s="12">
-        <v>2</v>
-      </c>
-      <c r="T2" s="12">
-        <v>2</v>
-      </c>
-      <c r="U2" s="12">
-        <v>2</v>
-      </c>
-      <c r="V2" s="12">
-        <v>2</v>
-      </c>
-      <c r="W2" s="12">
-        <v>2</v>
-      </c>
-      <c r="X2" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="12">
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="43">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.0001</v>
+      </c>
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="43">
+        <v>20</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" spans="1:11">
+      <c r="A6" s="44">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44">
+        <v>2</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E6" s="22">
+        <v>0.0001</v>
+      </c>
+      <c r="F6" s="44">
+        <v>1</v>
+      </c>
+      <c r="G6" s="44">
+        <v>13</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="K6" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:11">
+      <c r="A7" s="44">
+        <v>1</v>
+      </c>
+      <c r="B7" s="44">
+        <v>3</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="D7" s="22">
+        <v>2</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.0001</v>
+      </c>
+      <c r="F7" s="44">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44">
+        <v>19</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="1:11">
+      <c r="A8" s="43">
+        <v>1</v>
+      </c>
+      <c r="B8" s="43">
+        <v>4</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2</v>
+      </c>
+      <c r="G8" s="43">
+        <v>21</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="17" customFormat="1" spans="1:11">
+      <c r="A9" s="43">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43">
+        <v>5</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43">
+        <v>2</v>
+      </c>
+      <c r="G9" s="43">
+        <v>22</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="15" customFormat="1" spans="1:11">
+      <c r="A10" s="44">
+        <v>1</v>
+      </c>
+      <c r="B10" s="44">
+        <v>6</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="14.25" spans="1:26">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="10"/>
-    </row>
-    <row r="5" s="40" customFormat="1" ht="14.25" spans="1:26">
-      <c r="A5" s="41">
-        <v>2</v>
-      </c>
-      <c r="B5" s="41">
-        <v>1</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="41">
-        <v>200</v>
-      </c>
-      <c r="E5" s="41">
-        <v>200</v>
-      </c>
-      <c r="F5" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="41">
-        <v>2</v>
-      </c>
-      <c r="H5" s="41">
-        <v>1</v>
-      </c>
-      <c r="I5" s="41">
-        <v>2</v>
-      </c>
-      <c r="J5" s="41">
-        <v>2</v>
-      </c>
-      <c r="K5" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="41">
-        <v>2</v>
-      </c>
-      <c r="M5" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="41">
-        <v>400000</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="45">
-        <v>1</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" s="45" t="b">
+      <c r="D10" s="22">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.0001</v>
+      </c>
+      <c r="F10" s="44">
+        <v>1</v>
+      </c>
+      <c r="G10" s="44">
+        <v>13</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="41">
-        <v>20</v>
-      </c>
-      <c r="V5" s="41">
-        <v>20</v>
-      </c>
-      <c r="W5" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="44">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="44"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:18">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:18">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" ht="313.5" spans="1:18">
-      <c r="A8" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:18">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="R9" s="14"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:18">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:18">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="R11" s="14"/>
+      <c r="J10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:Z4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2636,334 +2656,631 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="71.25" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A2" s="10" t="s">
+    <row r="1" ht="57" spans="1:5">
+      <c r="A1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="37">
-        <v>1</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.0001</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1</v>
-      </c>
-      <c r="G5" s="37">
-        <v>20</v>
-      </c>
-      <c r="H5" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:8">
-      <c r="A6" s="38">
-        <v>1</v>
-      </c>
-      <c r="B6" s="38">
-        <v>2</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0.0001</v>
-      </c>
-      <c r="F6" s="38">
-        <v>1</v>
-      </c>
-      <c r="G6" s="38">
-        <v>13</v>
-      </c>
-      <c r="H6" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
-      <c r="A7" s="38">
-        <v>1</v>
-      </c>
-      <c r="B7" s="38">
-        <v>3</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0.0001</v>
-      </c>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="38">
-        <v>19</v>
-      </c>
-      <c r="H7" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:8">
-      <c r="A8" s="37">
-        <v>1</v>
-      </c>
-      <c r="B8" s="37">
-        <v>4</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37">
-        <v>2</v>
-      </c>
-      <c r="G8" s="37">
-        <v>21</v>
-      </c>
-      <c r="H8" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:8">
-      <c r="A9" s="37">
-        <v>1</v>
-      </c>
-      <c r="B9" s="37">
-        <v>5</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37">
-        <v>2</v>
-      </c>
-      <c r="G9" s="37">
-        <v>22</v>
-      </c>
-      <c r="H9" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:8">
-      <c r="A10" s="38">
-        <v>1</v>
-      </c>
-      <c r="B10" s="38">
-        <v>2</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.0001</v>
-      </c>
-      <c r="F10" s="38">
-        <v>1</v>
-      </c>
-      <c r="G10" s="38">
-        <v>13</v>
-      </c>
-      <c r="H10" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="39"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="38">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="13" max="13" width="31.25" customWidth="1"/>
+    <col min="14" max="14" width="57.2583333333333" customWidth="1"/>
+    <col min="15" max="15" width="27.6416666666667" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="28.25" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
+    <col min="20" max="20" width="26" customWidth="1"/>
+    <col min="21" max="21" width="23.375" customWidth="1"/>
+    <col min="22" max="23" width="29.625" customWidth="1"/>
+    <col min="24" max="24" width="23.625" customWidth="1"/>
+    <col min="25" max="25" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="10" customFormat="1" ht="171" spans="1:25">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:24">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13">
+        <v>2</v>
+      </c>
+      <c r="M2" s="13">
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <v>2</v>
+      </c>
+      <c r="O2" s="13">
+        <v>2</v>
+      </c>
+      <c r="P2" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13">
+        <v>2</v>
+      </c>
+      <c r="S2" s="13">
+        <v>2</v>
+      </c>
+      <c r="T2" s="13">
+        <v>2</v>
+      </c>
+      <c r="U2" s="13">
+        <v>2</v>
+      </c>
+      <c r="V2" s="13">
+        <v>2</v>
+      </c>
+      <c r="W2" s="13">
+        <v>2</v>
+      </c>
+      <c r="X2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="13" customFormat="1" ht="14.25" spans="1:24">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="11"/>
+    </row>
+    <row r="5" s="37" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A5" s="38">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="38">
+        <v>30</v>
+      </c>
+      <c r="E5" s="38">
+        <v>30</v>
+      </c>
+      <c r="F5" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38">
+        <v>2</v>
+      </c>
+      <c r="H5" s="38">
+        <v>1</v>
+      </c>
+      <c r="I5" s="38">
+        <v>2</v>
+      </c>
+      <c r="J5" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="38">
+        <v>2</v>
+      </c>
+      <c r="L5" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="38">
+        <v>400000</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="38">
+        <v>1</v>
+      </c>
+      <c r="P5" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="38">
+        <v>20</v>
+      </c>
+      <c r="U5" s="38">
+        <v>20</v>
+      </c>
+      <c r="V5" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="42">
+        <v>1</v>
+      </c>
+      <c r="X5" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="41"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:17">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:17">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" ht="313.5" spans="1:17">
+      <c r="A8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:17">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:17">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:17">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:Y4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2973,12 +3290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2995,159 +3312,159 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="142.5" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="10" customFormat="1" ht="142.5" spans="1:9">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" s="22" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="D2" s="14">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14">
+        <v>2</v>
+      </c>
+      <c r="H2" s="14">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="14" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" s="14" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="22">
-        <v>2</v>
-      </c>
-      <c r="E2" s="22">
-        <v>2</v>
-      </c>
-      <c r="F2" s="22">
-        <v>2</v>
-      </c>
-      <c r="G2" s="22">
-        <v>2</v>
-      </c>
-      <c r="H2" s="22">
-        <v>2</v>
-      </c>
-      <c r="I2" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="22" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" s="22" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" s="28" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="28">
-        <v>2</v>
-      </c>
-      <c r="B5" s="28">
-        <v>1</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28">
-        <v>2</v>
-      </c>
-      <c r="F5" s="28">
-        <v>2</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" s="14" customFormat="1" ht="14.25"/>
-    <row r="7" s="14" customFormat="1" ht="14.25"/>
-    <row r="8" s="14" customFormat="1" ht="14.25"/>
-    <row r="9" s="14" customFormat="1" ht="14.25"/>
-    <row r="10" s="33" customFormat="1" ht="14.25"/>
-    <row r="11" s="33" customFormat="1" ht="14.25"/>
-    <row r="12" s="33" customFormat="1" ht="14.25"/>
-    <row r="13" s="33" customFormat="1" ht="14.25"/>
+      <c r="F4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" s="29" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="29">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2</v>
+      </c>
+      <c r="F5" s="29">
+        <v>2</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14.25"/>
+    <row r="7" s="4" customFormat="1" ht="14.25"/>
+    <row r="8" s="4" customFormat="1" ht="14.25"/>
+    <row r="9" s="4" customFormat="1" ht="14.25"/>
+    <row r="10" s="34" customFormat="1" ht="14.25"/>
+    <row r="11" s="34" customFormat="1" ht="14.25"/>
+    <row r="12" s="34" customFormat="1" ht="14.25"/>
+    <row r="13" s="34" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
@@ -3160,7 +3477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
@@ -3168,7 +3485,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -3186,253 +3503,253 @@
     <col min="11" max="11" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="165" customHeight="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="10" customFormat="1" ht="165" customHeight="1" spans="1:11">
+      <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>2</v>
+      </c>
+      <c r="K2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="13" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="1" ht="54" spans="1:11">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="22">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" ht="94.5" spans="1:11">
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="22">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12">
-        <v>2</v>
-      </c>
-      <c r="I2" s="12">
-        <v>2</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="H6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="28" customFormat="1" ht="40.5" spans="1:11">
+      <c r="A7" s="28">
+        <v>2</v>
+      </c>
+      <c r="B7" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="54" spans="1:11">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="16">
-        <v>10000</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="94.5" spans="1:11">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="C7" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="28">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="28">
         <v>0</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="H7" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="28">
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J7" s="28">
         <v>1000</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" s="26" customFormat="1" ht="40.5" spans="1:11">
-      <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="26">
-        <v>3</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="26">
-        <v>2</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>105</v>
+      <c r="K7" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3446,13 +3763,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3466,134 +3783,134 @@
     <col min="7" max="7" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="85.5" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A2" s="10" t="s">
+    <row r="1" s="10" customFormat="1" ht="85.5" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="13" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" s="28" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" s="26" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A5" s="26">
-        <v>2</v>
-      </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="26">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28">
-        <v>1</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1"/>
-    <row r="7" s="5" customFormat="1"/>
-    <row r="8" s="5" customFormat="1"/>
-    <row r="9" s="5" customFormat="1"/>
-    <row r="10" s="5" customFormat="1"/>
-    <row r="11" s="5" customFormat="1"/>
-    <row r="12" s="5" customFormat="1"/>
-    <row r="13" s="5" customFormat="1"/>
-    <row r="14" s="5" customFormat="1"/>
-    <row r="15" s="5" customFormat="1"/>
-    <row r="16" s="5" customFormat="1"/>
-    <row r="17" s="5" customFormat="1"/>
-    <row r="18" s="5" customFormat="1"/>
+    <row r="6" s="17" customFormat="1"/>
+    <row r="7" s="17" customFormat="1"/>
+    <row r="8" s="17" customFormat="1"/>
+    <row r="9" s="17" customFormat="1"/>
+    <row r="10" s="17" customFormat="1"/>
+    <row r="11" s="17" customFormat="1"/>
+    <row r="12" s="17" customFormat="1"/>
+    <row r="13" s="17" customFormat="1"/>
+    <row r="14" s="17" customFormat="1"/>
+    <row r="15" s="17" customFormat="1"/>
+    <row r="16" s="17" customFormat="1"/>
+    <row r="17" s="17" customFormat="1"/>
+    <row r="18" s="17" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
@@ -3606,84 +3923,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="23" customFormat="1" ht="85.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3692,7 +3938,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.8583333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.8583333333333" style="17" customWidth="1"/>
     <col min="6" max="6" width="17.8583333333333" customWidth="1"/>
     <col min="7" max="7" width="29.2416666666667" customWidth="1"/>
     <col min="8" max="8" width="46.1916666666667" customWidth="1"/>
@@ -3700,391 +3946,391 @@
   </cols>
   <sheetData>
     <row r="1" ht="142.5" spans="1:10">
-      <c r="A1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>161</v>
+      <c r="A1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>2</v>
+      </c>
+      <c r="J2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:10">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:10">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:10">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:10">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>500</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" s="15" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:10">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22">
+        <v>6</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22">
         <v>100</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G10" s="22">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="14" t="b">
+      <c r="H10" s="22">
         <v>0</v>
       </c>
-      <c r="E6" s="14">
-        <v>2</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="16" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A11" s="24">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24">
+        <v>7</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:10">
-      <c r="A7" s="14">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="14" t="b">
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="24">
         <v>0</v>
       </c>
-      <c r="E7" s="14">
-        <v>2</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="14">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>500</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15">
-        <v>5</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:10">
-      <c r="A10" s="14">
-        <v>1</v>
-      </c>
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>100</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A11" s="18">
-        <v>2</v>
-      </c>
-      <c r="B11" s="18">
-        <v>7</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>178</v>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="4:6">
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" ht="14.25" spans="3:4">
-      <c r="C13" s="21"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="21"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="21"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" ht="14.25" spans="3:4">
-      <c r="C16" s="21"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="21"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="21"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" ht="14.25" spans="3:4">
-      <c r="C19" s="21"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="21"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="21"/>
+      <c r="C21" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4101,454 +4347,699 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="111" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="14.25"/>
+    <row r="6" s="4" customFormat="1" ht="14.25"/>
+    <row r="7" s="4" customFormat="1" ht="14.25"/>
+    <row r="8" s="4" customFormat="1" ht="14.25"/>
+    <row r="9" s="4" customFormat="1" ht="14.25"/>
+    <row r="10" s="4" customFormat="1" ht="14.25"/>
+    <row r="11" s="4" customFormat="1" ht="14.25"/>
+    <row r="12" s="4" customFormat="1" ht="14.25"/>
+    <row r="13" s="4" customFormat="1" ht="14.25"/>
+    <row r="14" s="4" customFormat="1" ht="14.25"/>
+    <row r="15" s="4" customFormat="1" ht="14.25"/>
+    <row r="16" s="4" customFormat="1" ht="14.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
+      <formula1>数据类型!$B$2:$B$56</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>202</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>206</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>211</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>215</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>219</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>222</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>224</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>227</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>230</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>218</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>234</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>236</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>141</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>237</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>238</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>239</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>242</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>243</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>246</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>249</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>252</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>254</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>257</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>260</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>263</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>266</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>269</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>271</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>273</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>275</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/地图生成.xlsx
+++ b/配置文档/地图相关/地图生成.xlsx
@@ -4,23 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17805" windowHeight="7080"/>
+    <workbookView windowHeight="17655" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_MapMaterial_生成地图用材料" sheetId="3" r:id="rId1"/>
-    <sheet name="cfg_GenerateFixedMap_固定地图配置" sheetId="11" r:id="rId2"/>
-    <sheet name="cfg_GenerateBottomMap_随机生成地图方式" sheetId="1" r:id="rId3"/>
-    <sheet name="cfg_MapExtraDraw_地图额外绘制表" sheetId="6" r:id="rId4"/>
-    <sheet name="cfg_GenerateBigStruct_地图大型结构" sheetId="4" r:id="rId5"/>
-    <sheet name="cfg_GenerateAdornMap_装饰绘制层" sheetId="5" r:id="rId6"/>
-    <sheet name="cfg_MapPassType_地图可通过类型" sheetId="9" r:id="rId7"/>
-    <sheet name="cfg_MapEdge_地图边缘连接配置" sheetId="10" r:id="rId8"/>
-    <sheet name="数据类型" sheetId="8" r:id="rId9"/>
+    <sheet name="cfg_MapMaterial_随机生成地图用材料" sheetId="3" r:id="rId1"/>
+    <sheet name="cfg_GenerateBottomMap_随机生成地图方式" sheetId="1" r:id="rId2"/>
+    <sheet name="cfg_MapExtraDraw_地图额外绘制表" sheetId="6" r:id="rId3"/>
+    <sheet name="cfg_GenerateBigStruct_地图大型结构" sheetId="4" r:id="rId4"/>
+    <sheet name="cfg_GenerateAdornMap_装饰绘制层" sheetId="5" r:id="rId5"/>
+    <sheet name="数据类型" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="8">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="8">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="8">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="5">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="5">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="5">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="239">
   <si>
     <t>该表只配置 地图生成用到的材料，
 不管是哪层的
@@ -181,36 +178,7 @@
     <t>悬崖</t>
   </si>
   <si>
-    <t>该表只配置 固定副本地图
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>固定地图id</t>
-  </si>
-  <si>
-    <t>地图名称</t>
-  </si>
-  <si>
-    <t>地图描述</t>
-  </si>
-  <si>
-    <t>地图文件路径
-无法仅填写#BASEVALUE</t>
-  </si>
-  <si>
-    <t>MapId</t>
-  </si>
-  <si>
-    <t>MapName</t>
-  </si>
-  <si>
-    <t>MapDescribe</t>
-  </si>
-  <si>
-    <t>MapPath</t>
-  </si>
-  <si>
-    <t>测试固定地图</t>
+    <t>深层工厂地板</t>
   </si>
   <si>
     <t>该表只配置 生成方式的总体参数，如生成地图的长宽，是否需要有边界墙壁， 边界墙壁的材料（图集id+图集内序号）,墙壁厚度，生成密度，平滑度，区域最小尺寸小于这个尺寸就清除,  生成种子id(生成种子表的id)  ，包含随机大结构id列表，
@@ -491,7 +459,7 @@
     <t>(1,1)</t>
   </si>
   <si>
-    <t>(50,200)</t>
+    <t>(200,200)</t>
   </si>
   <si>
     <t>地图大型结构id</t>
@@ -653,139 +621,6 @@
   </si>
   <si>
     <t>(4,1000)|(5,1000)</t>
-  </si>
-  <si>
-    <t>第一行 为备注
-第二行 为字段导出设置
-0为不导出,1为导出主键,2为常规导出
-3为最后一个导出的字段（之后随意）
-第三行 为字段名称（不能使用KEY_INDEX为字段名称）
-第四行 为数据类型
-该列为 是否导出
-0为不导出 1为导出 2为最后一行导出  数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>可通过id</t>
-  </si>
-  <si>
-    <t>可通过名称</t>
-  </si>
-  <si>
-    <t>可通过性
-是否可以通行
-寻路时先判断是否可通行
-再判断后面的参数</t>
-  </si>
-  <si>
-    <t>可攻击类型
-1 无视
-2 武器直射类型禁止</t>
-  </si>
-  <si>
-    <t>通过代价
-寻路计算时，
-通过该地形的代价</t>
-  </si>
-  <si>
-    <t>通过类型
-0无影响
-1单位到上面就会停止主动移动
-2会直接阻止任何陆军和
-爬行单位通过该地块</t>
-  </si>
-  <si>
-    <t>陆军通过时速度参数
-通过效率-陆军和爬行通过该地块时移动速度的比例，是个乘率，乘以单位的通过能力，1为没有减速，数字越小减速越多，0为无效</t>
-  </si>
-  <si>
-    <t>对其上建筑影响</t>
-  </si>
-  <si>
-    <t>对其上单位影响</t>
-  </si>
-  <si>
-    <t>PassTypeName</t>
-  </si>
-  <si>
-    <t>IsPass</t>
-  </si>
-  <si>
-    <t>ExamineType</t>
-  </si>
-  <si>
-    <t>PassCost</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>PassSpeedParm</t>
-  </si>
-  <si>
-    <t>BuildInfluence</t>
-  </si>
-  <si>
-    <t>UnitInfluence</t>
-  </si>
-  <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>沼泽</t>
-  </si>
-  <si>
-    <t>减少攻击速度25%</t>
-  </si>
-  <si>
-    <t>熔岩</t>
-  </si>
-  <si>
-    <t>持续对没有抗火标签的建筑造成伤害</t>
-  </si>
-  <si>
-    <t>持续对没有抗火标签的单位造成伤害</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>深坑</t>
-  </si>
-  <si>
-    <t>杀死陆军和爬行单位</t>
-  </si>
-  <si>
-    <t>该配置表用于保存 地图边缘连接相关图块
-相当于相同的材料，只是绘制上的不同，不改变数据
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>边缘连接类型
-0    0000  四周无本材料
-1    0001  下端有
-2    0010  左端有
-3    0011  左下有
-4    0100  上端有
-5    0101  上下有
-6    0110  左上有
-7    0111  左上下有
-8    1000  右端有
-9    1001  右下有
-10   1010 左右有
-11   1011 左右下有
-12   1100 右上有
-13   1101 右上下有
-14   1110 左右上有
-15   1111 四边都有</t>
-  </si>
-  <si>
-    <t>边缘连接名称</t>
-  </si>
-  <si>
-    <t>EdgeId</t>
-  </si>
-  <si>
-    <t>EdgeName</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -1050,7 +885,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +902,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1080,32 +916,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1262,7 +1074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,18 +1084,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF75BD42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,6 +1168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,137 +1412,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,29 +1552,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1776,94 +1579,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1875,10 +1642,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2208,8 +1975,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2225,14 +1992,14 @@
     <col min="10" max="11" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="171" spans="1:11">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="3" customFormat="1" ht="171" spans="1:11">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -2244,402 +2011,426 @@
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" ht="17" customHeight="1" spans="1:11">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="4" customFormat="1" ht="17" customHeight="1" spans="1:11">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="43">
-        <v>1</v>
-      </c>
-      <c r="B5" s="43">
-        <v>1</v>
-      </c>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="30">
+        <v>1</v>
+      </c>
+      <c r="B5" s="30">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.0001</v>
       </c>
-      <c r="F5" s="43">
-        <v>1</v>
-      </c>
-      <c r="G5" s="43">
-        <v>20</v>
-      </c>
-      <c r="H5" s="43" t="s">
+      <c r="F5" s="30">
+        <v>6</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="43" t="b">
+      <c r="I5" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="15" customFormat="1" spans="1:11">
-      <c r="A6" s="44">
-        <v>1</v>
-      </c>
-      <c r="B6" s="44">
-        <v>2</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="K5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="13" customFormat="1" spans="1:11">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="15">
         <v>3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="15">
         <v>0.0001</v>
       </c>
-      <c r="F6" s="44">
-        <v>1</v>
-      </c>
-      <c r="G6" s="44">
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
         <v>13</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="44" t="b">
+      <c r="I6" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:11">
-      <c r="A7" s="44">
-        <v>1</v>
-      </c>
-      <c r="B7" s="44">
+      <c r="K6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="13" customFormat="1" spans="1:11">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="22">
-        <v>2</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
         <v>0.0001</v>
       </c>
-      <c r="F7" s="44">
-        <v>1</v>
-      </c>
-      <c r="G7" s="44">
+      <c r="F7" s="31">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
         <v>19</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="43" t="b">
+      <c r="I7" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="1:11">
-      <c r="A8" s="43">
-        <v>1</v>
-      </c>
-      <c r="B8" s="43">
+      <c r="K7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:11">
+      <c r="A8" s="30">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30">
         <v>4</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30">
         <v>21</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="43" t="b">
+      <c r="I8" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="17" customFormat="1" spans="1:11">
-      <c r="A9" s="43">
-        <v>1</v>
-      </c>
-      <c r="B9" s="43">
+      <c r="K8" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:11">
+      <c r="A9" s="30">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30">
         <v>5</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="43">
-        <v>2</v>
-      </c>
-      <c r="G9" s="43">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2</v>
+      </c>
+      <c r="G9" s="30">
         <v>22</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="43" t="b">
+      <c r="I9" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="15" customFormat="1" spans="1:11">
-      <c r="A10" s="44">
-        <v>1</v>
-      </c>
-      <c r="B10" s="44">
+      <c r="K9" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="13" customFormat="1" spans="1:11">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="31">
         <v>6</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="15">
         <v>3</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="15">
         <v>0.0001</v>
       </c>
-      <c r="F10" s="44">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44">
+      <c r="F10" s="31">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
         <v>13</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="43" t="b">
+      <c r="I10" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="30">
+        <v>7</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.0001</v>
+      </c>
+      <c r="F11" s="30">
+        <v>7</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2656,122 +2447,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="57" spans="1:5">
-      <c r="A1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="38">
-        <v>2</v>
-      </c>
-      <c r="B5" s="38">
-        <v>1</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2799,484 +2480,484 @@
     <col min="25" max="25" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="171" spans="1:25">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="3" customFormat="1" ht="171" spans="1:25">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="M1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="N1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="O1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="V1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="W1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="X1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:24">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>2</v>
+      </c>
+      <c r="T2" s="4">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4">
+        <v>2</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:24">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="I3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="9"/>
-    </row>
-    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:24">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13">
-        <v>2</v>
-      </c>
-      <c r="M2" s="13">
-        <v>2</v>
-      </c>
-      <c r="N2" s="13">
-        <v>2</v>
-      </c>
-      <c r="O2" s="13">
-        <v>2</v>
-      </c>
-      <c r="P2" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13">
-        <v>2</v>
-      </c>
-      <c r="S2" s="13">
-        <v>2</v>
-      </c>
-      <c r="T2" s="13">
-        <v>2</v>
-      </c>
-      <c r="U2" s="13">
-        <v>2</v>
-      </c>
-      <c r="V2" s="13">
-        <v>2</v>
-      </c>
-      <c r="W2" s="13">
-        <v>2</v>
-      </c>
-      <c r="X2" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="13" customFormat="1" ht="14.25" spans="1:24">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="K3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="L3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="M3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="N3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="O3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="P3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="Q3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="R3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="S3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="T3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="U3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="V3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="W3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="X3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="13" t="s">
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="P4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="10"/>
+    </row>
+    <row r="5" s="24" customFormat="1" ht="14.25" spans="1:25">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="D5" s="25">
+        <v>100</v>
+      </c>
+      <c r="E5" s="25">
+        <v>100</v>
+      </c>
+      <c r="F5" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
+        <v>7</v>
+      </c>
+      <c r="J5" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <v>2</v>
+      </c>
+      <c r="L5" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="25">
+        <v>100000</v>
+      </c>
+      <c r="N5" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="O5" s="25">
+        <v>1</v>
+      </c>
+      <c r="P5" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="R5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="25">
+        <v>20</v>
+      </c>
+      <c r="U5" s="25">
+        <v>20</v>
+      </c>
+      <c r="V5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="29">
+        <v>1</v>
+      </c>
+      <c r="X5" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="28"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:17">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:17">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" ht="313.5" spans="1:17">
+      <c r="A8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="B8" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="11"/>
-    </row>
-    <row r="5" s="37" customFormat="1" ht="14.25" spans="1:25">
-      <c r="A5" s="38">
-        <v>2</v>
-      </c>
-      <c r="B5" s="38">
-        <v>1</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="38">
-        <v>30</v>
-      </c>
-      <c r="E5" s="38">
-        <v>30</v>
-      </c>
-      <c r="F5" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38">
-        <v>2</v>
-      </c>
-      <c r="H5" s="38">
-        <v>1</v>
-      </c>
-      <c r="I5" s="38">
-        <v>2</v>
-      </c>
-      <c r="J5" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
-        <v>2</v>
-      </c>
-      <c r="L5" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="38">
-        <v>400000</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="38">
-        <v>1</v>
-      </c>
-      <c r="P5" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="38">
-        <v>20</v>
-      </c>
-      <c r="U5" s="38">
-        <v>20</v>
-      </c>
-      <c r="V5" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="42">
-        <v>1</v>
-      </c>
-      <c r="X5" s="41">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="41"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:17">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:17">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" ht="313.5" spans="1:17">
-      <c r="A8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" ht="14.25" spans="1:17">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3290,13 +2971,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3312,159 +2993,159 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="142.5" spans="1:9">
-      <c r="A1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="3" customFormat="1" ht="142.5" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" s="19" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19">
+        <v>2</v>
+      </c>
+      <c r="H2" s="19">
+        <v>2</v>
+      </c>
+      <c r="I2" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="19" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I3" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="10" t="s">
+    </row>
+    <row r="4" s="19" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" s="14" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="14" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="H4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="5" s="12" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="H5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" s="14" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" s="29" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="29">
-        <v>2</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>2</v>
-      </c>
-      <c r="F5" s="29">
-        <v>2</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14.25"/>
-    <row r="7" s="4" customFormat="1" ht="14.25"/>
-    <row r="8" s="4" customFormat="1" ht="14.25"/>
-    <row r="9" s="4" customFormat="1" ht="14.25"/>
-    <row r="10" s="34" customFormat="1" ht="14.25"/>
-    <row r="11" s="34" customFormat="1" ht="14.25"/>
-    <row r="12" s="34" customFormat="1" ht="14.25"/>
-    <row r="13" s="34" customFormat="1" ht="14.25"/>
+    <row r="6" s="20" customFormat="1" ht="14.25"/>
+    <row r="7" s="20" customFormat="1" ht="14.25"/>
+    <row r="8" s="20" customFormat="1" ht="14.25"/>
+    <row r="9" s="20" customFormat="1" ht="14.25"/>
+    <row r="10" s="21" customFormat="1" ht="14.25"/>
+    <row r="11" s="21" customFormat="1" ht="14.25"/>
+    <row r="12" s="21" customFormat="1" ht="14.25"/>
+    <row r="13" s="21" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
@@ -3477,15 +3158,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -3503,253 +3184,253 @@
     <col min="11" max="11" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="165" customHeight="1" spans="1:11">
-      <c r="A1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="3" customFormat="1" ht="165" customHeight="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="E3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>2</v>
-      </c>
-      <c r="K2" s="13">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" s="13" customFormat="1" ht="54" spans="1:11">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" s="13" customFormat="1" ht="94.5" spans="1:11">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="40.5" spans="1:11">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="13" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" s="15" customFormat="1" ht="54" spans="1:11">
-      <c r="A5" s="22">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="F7" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="22">
-        <v>10000</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" s="15" customFormat="1" ht="94.5" spans="1:11">
-      <c r="A6" s="22">
-        <v>1</v>
-      </c>
-      <c r="B6" s="22">
-        <v>2</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="22">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="22" t="b">
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J7" s="5">
         <v>1000</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="1" ht="40.5" spans="1:11">
-      <c r="A7" s="28">
-        <v>2</v>
-      </c>
-      <c r="B7" s="28">
-        <v>3</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="28">
-        <v>2</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="33"/>
+      <c r="A8" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3763,13 +3444,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3783,134 +3464,134 @@
     <col min="7" max="7" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="85.5" spans="1:7">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="3" customFormat="1" ht="85.5" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="G5" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" s="13" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" s="28" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A5" s="28">
-        <v>2</v>
-      </c>
-      <c r="B5" s="28">
-        <v>1</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="28">
-        <v>2</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" s="17" customFormat="1"/>
-    <row r="7" s="17" customFormat="1"/>
-    <row r="8" s="17" customFormat="1"/>
-    <row r="9" s="17" customFormat="1"/>
-    <row r="10" s="17" customFormat="1"/>
-    <row r="11" s="17" customFormat="1"/>
-    <row r="12" s="17" customFormat="1"/>
-    <row r="13" s="17" customFormat="1"/>
-    <row r="14" s="17" customFormat="1"/>
-    <row r="15" s="17" customFormat="1"/>
-    <row r="16" s="17" customFormat="1"/>
-    <row r="17" s="17" customFormat="1"/>
-    <row r="18" s="17" customFormat="1"/>
+    <row r="6" s="6" customFormat="1"/>
+    <row r="7" s="6" customFormat="1"/>
+    <row r="8" s="6" customFormat="1"/>
+    <row r="9" s="6" customFormat="1"/>
+    <row r="10" s="6" customFormat="1"/>
+    <row r="11" s="6" customFormat="1"/>
+    <row r="12" s="6" customFormat="1"/>
+    <row r="13" s="6" customFormat="1"/>
+    <row r="14" s="6" customFormat="1"/>
+    <row r="15" s="6" customFormat="1"/>
+    <row r="16" s="6" customFormat="1"/>
+    <row r="17" s="6" customFormat="1"/>
+    <row r="18" s="6" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
@@ -3923,556 +3604,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="24.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="17.8583333333333" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.8583333333333" customWidth="1"/>
-    <col min="7" max="7" width="29.2416666666667" customWidth="1"/>
-    <col min="8" max="8" width="46.1916666666667" customWidth="1"/>
-    <col min="9" max="10" width="24.7833333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="142.5" spans="1:10">
-      <c r="A1" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12">
-        <v>2</v>
-      </c>
-      <c r="I2" s="12">
-        <v>2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:10">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>100</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:10">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>500</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" s="15" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21">
-        <v>5</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:10">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="22">
-        <v>6</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22">
-        <v>100</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" s="16" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A11" s="24">
-        <v>2</v>
-      </c>
-      <c r="B11" s="24">
-        <v>7</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <v>1</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="4:6">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="14.25" spans="3:4">
-      <c r="C13" s="27"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="27"/>
-    </row>
-    <row r="16" ht="14.25" spans="3:4">
-      <c r="C16" s="27"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="27"/>
-    </row>
-    <row r="19" ht="14.25" spans="3:4">
-      <c r="C19" s="27"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="27"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="111" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="14.25"/>
-    <row r="6" s="4" customFormat="1" ht="14.25"/>
-    <row r="7" s="4" customFormat="1" ht="14.25"/>
-    <row r="8" s="4" customFormat="1" ht="14.25"/>
-    <row r="9" s="4" customFormat="1" ht="14.25"/>
-    <row r="10" s="4" customFormat="1" ht="14.25"/>
-    <row r="11" s="4" customFormat="1" ht="14.25"/>
-    <row r="12" s="4" customFormat="1" ht="14.25"/>
-    <row r="13" s="4" customFormat="1" ht="14.25"/>
-    <row r="14" s="4" customFormat="1" ht="14.25"/>
-    <row r="15" s="4" customFormat="1" ht="14.25"/>
-    <row r="16" s="4" customFormat="1" ht="14.25"/>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4485,19 +3623,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4508,13 +3646,13 @@
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4522,16 +3660,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4542,13 +3680,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4556,16 +3694,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4576,13 +3714,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4594,10 +3732,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4605,16 +3743,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4622,16 +3760,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4639,16 +3777,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4656,16 +3794,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4673,16 +3811,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4690,13 +3828,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4704,10 +3842,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4715,10 +3853,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4726,10 +3864,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4737,10 +3875,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4748,10 +3886,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4759,10 +3897,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4770,10 +3908,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4781,10 +3919,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4795,7 +3933,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4803,10 +3941,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4814,10 +3952,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4825,10 +3963,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4836,16 +3974,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4853,16 +3991,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4870,16 +4008,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4887,16 +4025,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4904,13 +4042,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4918,16 +4056,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4935,16 +4073,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4955,13 +4093,13 @@
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4969,16 +4107,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4986,16 +4124,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5003,14 +4141,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5018,28 +4156,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>279</v>
+      <c r="B38" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/地图生成.xlsx
+++ b/配置文档/地图相关/地图生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="22260" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapMaterial_随机生成地图用材料" sheetId="3" r:id="rId1"/>
@@ -1975,8 +1975,8 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3163,8 +3163,8 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
@@ -3617,7 +3617,7 @@
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
